--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/20/seed4/result_data_KNN.xlsx
@@ -536,7 +536,7 @@
         <v>5.51</v>
       </c>
       <c r="C6" t="n">
-        <v>-13.482</v>
+        <v>-12.998</v>
       </c>
       <c r="D6" t="n">
         <v>-8.08</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>6.18</v>
+        <v>5.605</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>16.186</v>
+        <v>16.069</v>
       </c>
     </row>
     <row r="8">
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.954</v>
+        <v>-21.864</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -610,7 +610,7 @@
         <v>-8.85</v>
       </c>
       <c r="E10" t="n">
-        <v>16.504</v>
+        <v>16.437</v>
       </c>
     </row>
     <row r="11">
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.144</v>
+        <v>5.662</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.3</v>
+        <v>-21.979</v>
       </c>
       <c r="B13" t="n">
         <v>4.02</v>
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.79</v>
+        <v>16.477</v>
       </c>
     </row>
     <row r="14">
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.92</v>
+        <v>6.044</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.832</v>
+        <v>-13.134</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.782</v>
+        <v>-21.83</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.004</v>
+        <v>16.625</v>
       </c>
     </row>
     <row r="17">
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.894</v>
+        <v>-21.985</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -754,7 +754,7 @@
         <v>-18.24</v>
       </c>
       <c r="B19" t="n">
-        <v>7.064</v>
+        <v>7.889</v>
       </c>
       <c r="C19" t="n">
         <v>-12.15</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.144</v>
+        <v>-20.846</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.088</v>
+        <v>16.452</v>
       </c>
     </row>
     <row r="21">
@@ -848,7 +848,7 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.97</v>
+        <v>17.006</v>
       </c>
     </row>
     <row r="25">
@@ -870,10 +870,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.128</v>
+        <v>-21.269</v>
       </c>
       <c r="B26" t="n">
-        <v>6.846000000000001</v>
+        <v>6.734999999999999</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.63</v>
+        <v>-21.711</v>
       </c>
       <c r="B27" t="n">
-        <v>5.952000000000001</v>
+        <v>5.829</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -910,7 +910,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.512</v>
+        <v>-12.965</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.604</v>
+        <v>-21.543</v>
       </c>
       <c r="B29" t="n">
-        <v>6.32</v>
+        <v>6.437</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -984,7 +984,7 @@
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>15.956</v>
+        <v>16.15</v>
       </c>
     </row>
     <row r="33">
@@ -995,7 +995,7 @@
         <v>6.69</v>
       </c>
       <c r="C33" t="n">
-        <v>-11.558</v>
+        <v>-11.292</v>
       </c>
       <c r="D33" t="n">
         <v>-6.63</v>
@@ -1023,13 +1023,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-20.518</v>
+        <v>-20.452</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.572</v>
+        <v>-12.624</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-21.054</v>
+        <v>-21.089</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>6.992</v>
+        <v>7.515000000000001</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1077,10 +1077,10 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>4.148000000000001</v>
+        <v>5.557</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.728</v>
+        <v>-12.647</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>15.514</v>
+        <v>16.222</v>
       </c>
     </row>
     <row r="40">
@@ -1165,7 +1165,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-12.642</v>
+        <v>-12.774</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.126</v>
+        <v>-12.277</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1193,13 +1193,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-21.342</v>
+        <v>-21.451</v>
       </c>
       <c r="B45" t="n">
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.728</v>
+        <v>-13.244</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1230,16 +1230,16 @@
         <v>-21.83</v>
       </c>
       <c r="B47" t="n">
-        <v>6.460000000000001</v>
+        <v>5.635999999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>-13.144</v>
+        <v>-13.038</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.51</v>
+        <v>16.585</v>
       </c>
     </row>
     <row r="48">
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.646</v>
+        <v>17.19</v>
       </c>
     </row>
     <row r="49">
@@ -1298,10 +1298,10 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.834</v>
+        <v>5.816</v>
       </c>
       <c r="C51" t="n">
-        <v>-10.726</v>
+        <v>-11.76</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>6.064</v>
+        <v>5.678</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>17.438</v>
+        <v>16.925</v>
       </c>
     </row>
     <row r="53">
@@ -1352,7 +1352,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-13.356</v>
+        <v>-13.011</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.282</v>
+        <v>-21.632</v>
       </c>
       <c r="B55" t="n">
-        <v>7.215999999999999</v>
+        <v>6.392</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1392,18 +1392,18 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.308</v>
+        <v>16.656</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.854</v>
+        <v>-21.337</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.588</v>
+        <v>-13.051</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1488,7 +1488,7 @@
         <v>4.28</v>
       </c>
       <c r="C62" t="n">
-        <v>-14.192</v>
+        <v>-13.409</v>
       </c>
       <c r="D62" t="n">
         <v>-8.5</v>
@@ -1505,7 +1505,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-11.796</v>
+        <v>-12.484</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-12.002</v>
+        <v>-11.224</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.88</v>
+        <v>-21.538</v>
       </c>
       <c r="B69" t="n">
-        <v>5.994</v>
+        <v>6.256</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1621,10 +1621,10 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>5.774</v>
+        <v>6.08</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.678</v>
+        <v>-11.114</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1720,10 +1720,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-21.6</v>
+        <v>-21.706</v>
       </c>
       <c r="B76" t="n">
-        <v>7.694</v>
+        <v>6.285</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-21.496</v>
+        <v>-20.427</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1808,10 +1808,10 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>4.43</v>
+        <v>4.685</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.598</v>
+        <v>-13.317</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.868</v>
+        <v>-21.875</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-20.35</v>
+        <v>-20.659</v>
       </c>
       <c r="B83" t="n">
-        <v>7.861999999999999</v>
+        <v>7.124000000000001</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.452</v>
+        <v>16.663</v>
       </c>
     </row>
     <row r="85">
@@ -1930,7 +1930,7 @@
         <v>5.51</v>
       </c>
       <c r="C88" t="n">
-        <v>-12.926</v>
+        <v>-13.25</v>
       </c>
       <c r="D88" t="n">
         <v>-8.140000000000001</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.442</v>
+        <v>-21.573</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2029,7 +2029,7 @@
         <v>-20.95</v>
       </c>
       <c r="B94" t="n">
-        <v>7.703999999999999</v>
+        <v>6.616999999999999</v>
       </c>
       <c r="C94" t="n">
         <v>-10.65</v>
@@ -2066,7 +2066,7 @@
         <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-12.86</v>
+        <v>-12.998</v>
       </c>
       <c r="D96" t="n">
         <v>-8.529999999999999</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-21.68</v>
+        <v>-21.769</v>
       </c>
       <c r="B97" t="n">
         <v>5.08</v>
@@ -2117,7 +2117,7 @@
         <v>8.42</v>
       </c>
       <c r="C99" t="n">
-        <v>-13.82</v>
+        <v>-12.984</v>
       </c>
       <c r="D99" t="n">
         <v>-7.98</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>6.557999999999998</v>
+        <v>6.124</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.314</v>
+        <v>16.476</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>17.334</v>
+        <v>16.793</v>
       </c>
     </row>
     <row r="102">
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>6.617999999999999</v>
+        <v>6.948</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
